--- a/data_merged.xlsx
+++ b/data_merged.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/LH9896/Library/CloudStorage/Box-Box/_TELL/Projects/TELL &amp; H2TX/UEBER CRINGE 2025/CRINGE_analysis/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{148FEF1A-B83B-494F-9816-2DD48B0B16D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E4A1EFC-0EA6-CE47-93BF-C84E80E80262}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="30240" windowHeight="18880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -16,9 +16,22 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$D$1:$D$62</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$F$1:$F$62</definedName>
   </definedNames>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -3705,10 +3718,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:AS62"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" topLeftCell="A27" zoomScale="125" workbookViewId="0">
+      <selection activeCell="E54" sqref="E54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3984,7 +3998,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="3" spans="1:45" ht="144" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:45" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>70</v>
       </c>
@@ -4100,7 +4114,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:45" ht="176" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:45" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>93</v>
       </c>
@@ -4213,7 +4227,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:45" ht="176" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:45" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>114</v>
       </c>
@@ -4439,7 +4453,7 @@
         <v>150</v>
       </c>
     </row>
-    <row r="7" spans="1:45" ht="144" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:45" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>151</v>
       </c>
@@ -4555,7 +4569,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="8" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>169</v>
       </c>
@@ -4668,7 +4682,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="9" spans="1:45" ht="176" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:45" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>187</v>
       </c>
@@ -4799,7 +4813,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="10" spans="1:45" ht="176" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:45" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>208</v>
       </c>
@@ -4909,7 +4923,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="11" spans="1:45" ht="176" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:45" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>226</v>
       </c>
@@ -5129,7 +5143,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="13" spans="1:45" ht="112" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:45" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>261</v>
       </c>
@@ -5230,7 +5244,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="14" spans="1:45" ht="144" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:45" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>277</v>
       </c>
@@ -5343,7 +5357,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="15" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>296</v>
       </c>
@@ -5477,7 +5491,7 @@
         <v>317</v>
       </c>
     </row>
-    <row r="16" spans="1:45" ht="144" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:45" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>318</v>
       </c>
@@ -5608,7 +5622,7 @@
         <v>333</v>
       </c>
     </row>
-    <row r="17" spans="1:45" ht="176" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:45" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>334</v>
       </c>
@@ -5718,7 +5732,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="18" spans="1:45" ht="160" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:45" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>352</v>
       </c>
@@ -5831,7 +5845,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="19" spans="1:45" ht="144" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:45" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>370</v>
       </c>
@@ -5953,7 +5967,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="20" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>391</v>
       </c>
@@ -6087,7 +6101,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="21" spans="1:45" ht="176" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:45" ht="176" hidden="1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>415</v>
       </c>
@@ -6197,7 +6211,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="22" spans="1:45" ht="160" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:45" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>430</v>
       </c>
@@ -6319,7 +6333,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="23" spans="1:45" ht="144" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:45" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>448</v>
       </c>
@@ -6447,7 +6461,7 @@
         <v>464</v>
       </c>
     </row>
-    <row r="24" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>465</v>
       </c>
@@ -6709,7 +6723,7 @@
         <v>496</v>
       </c>
     </row>
-    <row r="26" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>497</v>
       </c>
@@ -6974,7 +6988,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="28" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>532</v>
       </c>
@@ -7090,7 +7104,7 @@
         <v>550</v>
       </c>
     </row>
-    <row r="29" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>551</v>
       </c>
@@ -7200,7 +7214,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="30" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>567</v>
       </c>
@@ -7334,7 +7348,7 @@
         <v>583</v>
       </c>
     </row>
-    <row r="31" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>584</v>
       </c>
@@ -7450,7 +7464,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="32" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>600</v>
       </c>
@@ -7554,7 +7568,7 @@
         <v>614</v>
       </c>
     </row>
-    <row r="33" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>615</v>
       </c>
@@ -7661,7 +7675,7 @@
         <v>631</v>
       </c>
     </row>
-    <row r="34" spans="1:45" ht="160" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:45" ht="160" hidden="1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>632</v>
       </c>
@@ -7771,7 +7785,7 @@
         <v>646</v>
       </c>
     </row>
-    <row r="35" spans="1:45" ht="112" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:45" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>647</v>
       </c>
@@ -7884,7 +7898,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="36" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>661</v>
       </c>
@@ -7994,7 +8008,7 @@
         <v>676</v>
       </c>
     </row>
-    <row r="37" spans="1:45" ht="144" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:45" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>677</v>
       </c>
@@ -8104,7 +8118,7 @@
         <v>693</v>
       </c>
     </row>
-    <row r="38" spans="1:45" ht="112" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:45" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>694</v>
       </c>
@@ -8238,7 +8252,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="39" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>713</v>
       </c>
@@ -8348,7 +8362,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="40" spans="1:45" ht="112" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:45" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>731</v>
       </c>
@@ -8482,7 +8496,7 @@
         <v>749</v>
       </c>
     </row>
-    <row r="41" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>750</v>
       </c>
@@ -8616,7 +8630,7 @@
         <v>765</v>
       </c>
     </row>
-    <row r="42" spans="1:45" ht="112" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:45" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>766</v>
       </c>
@@ -8709,7 +8723,7 @@
         <v>774</v>
       </c>
     </row>
-    <row r="43" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>775</v>
       </c>
@@ -8819,7 +8833,7 @@
         <v>790</v>
       </c>
     </row>
-    <row r="44" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>791</v>
       </c>
@@ -9057,7 +9071,7 @@
         <v>829</v>
       </c>
     </row>
-    <row r="46" spans="1:45" ht="112" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:45" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>830</v>
       </c>
@@ -9173,7 +9187,7 @@
         <v>845</v>
       </c>
     </row>
-    <row r="47" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>846</v>
       </c>
@@ -9286,7 +9300,7 @@
         <v>862</v>
       </c>
     </row>
-    <row r="48" spans="1:45" ht="112" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:45" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>863</v>
       </c>
@@ -9402,7 +9416,7 @@
         <v>879</v>
       </c>
     </row>
-    <row r="49" spans="1:45" ht="96" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:45" ht="96" hidden="1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>880</v>
       </c>
@@ -9518,7 +9532,7 @@
         <v>896</v>
       </c>
     </row>
-    <row r="50" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>897</v>
       </c>
@@ -9628,7 +9642,7 @@
         <v>913</v>
       </c>
     </row>
-    <row r="51" spans="1:45" ht="112" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:45" ht="112" hidden="1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>914</v>
       </c>
@@ -9744,7 +9758,7 @@
         <v>929</v>
       </c>
     </row>
-    <row r="52" spans="1:45" ht="144" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:45" ht="144" hidden="1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>930</v>
       </c>
@@ -9860,7 +9874,7 @@
         <v>944</v>
       </c>
     </row>
-    <row r="53" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>945</v>
       </c>
@@ -10104,7 +10118,7 @@
         <v>975</v>
       </c>
     </row>
-    <row r="55" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>976</v>
       </c>
@@ -10214,7 +10228,7 @@
         <v>993</v>
       </c>
     </row>
-    <row r="56" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>994</v>
       </c>
@@ -10324,7 +10338,7 @@
         <v>1006</v>
       </c>
     </row>
-    <row r="57" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>1007</v>
       </c>
@@ -10434,7 +10448,7 @@
         <v>1023</v>
       </c>
     </row>
-    <row r="58" spans="1:45" ht="16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:45" ht="16" hidden="1" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>1024</v>
       </c>
@@ -10538,7 +10552,7 @@
         <v>1036</v>
       </c>
     </row>
-    <row r="59" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>1037</v>
       </c>
@@ -10654,7 +10668,7 @@
         <v>1050</v>
       </c>
     </row>
-    <row r="60" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>1051</v>
       </c>
@@ -10785,7 +10799,7 @@
         <v>1067</v>
       </c>
     </row>
-    <row r="61" spans="1:45" ht="128" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:45" ht="128" hidden="1" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>1068</v>
       </c>
@@ -11033,7 +11047,14 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="D1:D62" xr:uid="{00000000-0001-0000-0000-000000000000}"/>
+  <autoFilter ref="F1:F62" xr:uid="{00000000-0001-0000-0000-000000000000}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="brief denial"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>